--- a/biology/Botanique/Frederic_Edward_Clements/Frederic_Edward_Clements.xlsx
+++ b/biology/Botanique/Frederic_Edward_Clements/Frederic_Edward_Clements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederic Edward Clements est un botaniste américain, né le 16 septembre 1874 à Lincoln et mort le 26 juillet 1945.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils d’Ephraim G. Clements et de Mary née Scoggin. Il obtient son Bachelor of Sciences à l’université du Nebraska en 1894, son Master of Arts en 1896 et son Ph. D. en 1898. Il se marie avec Edit Schwartz le 30 mai 1899.
 De 1894 à 1906, il est instructeur et professeur de botanique à l’université du Nebraska, puis de 1906 à 1907, professeur de physiologie végétale, puis de 1907 à 1917, professeur et directeur du département de botanique de l’université du Minnesota, enfin de 1917 à 1941, botaniste de l’État et responsable des recherches écologiques au Carnegie Institut de Washington. À partir de 1941, il dirige le laboratoire de recherche écologique. Il participe aux travaux du bureau de protection des sols à partir de 1934. Il obtient un doctorat honorifique en 1940.
@@ -563,7 +577,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
